--- a/available_profiles.xlsx
+++ b/available_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,15 +497,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -514,52 +514,48 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>£634-£1646</t>
+          <t>£993-£1261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -568,26 +564,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>£464-£1910</t>
+          <t>£357-£1605</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -595,35 +591,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>£748-£949</t>
+          <t>£596-£933</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -637,7 +633,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Night</t>
@@ -651,15 +651,15 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -668,12 +668,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>£694-£851</t>
+          <t>£897-£901</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -687,10 +687,14 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -701,43 +705,43 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>£751-£1401</t>
+          <t>£773-£1082</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -751,11 +755,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -768,12 +772,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>£615-£1095</t>
+          <t>£483-£1092</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -789,7 +793,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -805,11 +809,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Jane Williams</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -822,7 +826,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>£963-£1604</t>
+          <t>£506-£1450</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,11 +836,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>No</t>
@@ -855,7 +863,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -863,16 +871,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>£689-£1859</t>
+          <t>£812-£1801</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -894,26 +902,26 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -922,26 +930,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>£549-£673</t>
+          <t>£959-£1181</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -949,35 +957,35 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>£737-£1603</t>
+          <t>£812-£1798</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -987,15 +995,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1003,21 +1007,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1026,12 +1030,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>£894-£1776</t>
+          <t>£303-£1987</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1042,7 +1046,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1053,44 +1057,48 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>£908-£1711</t>
+          <t>£707-£999</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>No</t>
@@ -1098,40 +1106,40 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>£735-£746</t>
+          <t>£674-£1257</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1159,69 +1167,65 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>£475-£1552</t>
+          <t>£404-£571</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1230,12 +1234,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>£390-£1998</t>
+          <t>£307-£896</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1251,7 +1255,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1261,49 +1265,53 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>£998-£1830</t>
+          <t>£584-£1932</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1311,21 +1319,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1334,28 +1342,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>£611-£681</t>
+          <t>£666-£1444</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1365,35 +1369,35 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>£639-£681</t>
+          <t>£313-£1916</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1404,13 +1408,17 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1421,15 +1429,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1438,52 +1446,48 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>£509-£1931</t>
+          <t>£965-£1592</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1492,26 +1496,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>£921-£1859</t>
+          <t>£901-£1054</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1525,15 +1529,15 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1542,7 +1546,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>£682-£708</t>
+          <t>£373-£912</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1552,51 +1556,47 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>£781-£1512</t>
+          <t>£643-£1855</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1611,51 +1611,51 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>394</v>
+        <v>285</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>£990-£1711</t>
+          <t>£796-£1262</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1671,12 +1671,12 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1687,15 +1687,15 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>£499-£760</t>
+          <t>£772-£977</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1719,65 +1719,65 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>412</v>
+        <v>301</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>£771-£1275</t>
+          <t>£916-£979</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1791,96 +1791,88 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>£675-£1285</t>
+          <t>£619-£928</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>468</v>
+        <v>327</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>£642-£1110</t>
+          <t>£392-£1895</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1893,71 +1885,75 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>469</v>
+        <v>358</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>£945-£1908</t>
+          <t>£907-£1808</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>477</v>
+        <v>364</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1966,82 +1962,906 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>£490-£1755</t>
+          <t>£700-£1713</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
+        <v>367</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>22</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>£682-£924</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>370</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Alice Williams</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>22</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>£552-£1046</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>374</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Jane Doe</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>22</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>£780-£1075</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>379</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Jane Johnson</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>23</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>£546-£1668</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>384</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>24</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>£881-£1985</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>404</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Alice Smith</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>18</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>£473-£686</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>411</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jane Johnson</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>25</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>£335-£972</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>414</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>22</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>£631-£782</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>430</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alice Smith</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>18</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>£394-£1948</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>435</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Alice Smith</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>25</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>£671-£818</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>458</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Jane Johnson</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>19</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>£490-£1146</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>479</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Jane Doe</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>22</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>£382-£533</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>481</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>26</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>£936-£1935</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>484</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Alice Smith</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C44" t="n">
+        <v>24</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>£832-£1039</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>486</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Bob Doe</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>22</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>£912-£1221</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>490</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>23</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>£382-£382</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>£733-£1615</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>500</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jane Doe</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>26</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>£345-£1268</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Cruising</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>2024-09</t>
         </is>

--- a/available_profiles.xlsx
+++ b/available_profiles.xlsx
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/available_profiles.xlsx
+++ b/available_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,61 +497,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>£993-£1261</t>
+          <t>£491-£913</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -564,21 +564,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>£357-£1605</t>
+          <t>£722-£1914</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>No</t>
@@ -591,129 +595,129 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>£596-£933</t>
+          <t>£680-£1115</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>£897-£901</t>
+          <t>£693-£1053</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -722,26 +726,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>£773-£1082</t>
+          <t>£783-£1653</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -749,21 +753,21 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50</v>
+        <v>337</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -772,28 +776,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>£483-£1092</t>
+          <t>£301-£1565</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -809,29 +809,29 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jane Williams</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>£506-£1450</t>
+          <t>£393-£558</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -842,17 +842,13 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -863,65 +859,65 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60</v>
+        <v>430</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>£812-£1801</t>
+          <t>£932-£1288</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -930,26 +926,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>£959-£1181</t>
+          <t>£409-£411</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -957,17 +953,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -975,34 +971,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>£812-£1798</t>
+          <t>£919-£1102</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1013,29 +1005,29 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>£303-£1987</t>
+          <t>£747-£1274</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1049,7 +1041,11 @@
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1057,17 +1053,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1080,7 +1076,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>£707-£999</t>
+          <t>£700-£1308</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1090,15 +1086,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
           <t>No</t>
@@ -1117,24 +1113,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>135</v>
+        <v>476</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>£674-£1257</t>
+          <t>£974-£1569</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1144,11 +1140,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>No</t>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1167,15 +1167,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>156</v>
+        <v>481</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>£404-£571</t>
+          <t>£506-£762</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1199,11 +1199,15 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1211,21 +1215,21 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1234,25 +1238,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>£307-£896</t>
+          <t>£657-£1098</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1265,30 +1269,30 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Alice Doe</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>£584-£1932</t>
+          <t>£732-£1515</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1309,7 +1313,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1319,21 +1323,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1342,12 +1346,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>£666-£1444</t>
+          <t>£332-£396</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1364,7 +1368,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1375,24 +1379,24 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>£313-£1916</t>
+          <t>£562-£1835</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1402,20 +1406,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1423,17 +1423,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1441,31 +1441,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>£965-£1592</t>
+          <t>£432-£987</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1479,15 +1479,15 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1496,12 +1496,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>£901-£1054</t>
+          <t>£480-£911</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1512,13 +1512,13 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1529,24 +1529,24 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>£373-£912</t>
+          <t>£916-£1859</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1556,65 +1556,69 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>£643-£1855</t>
+          <t>£496-£1910</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>No</t>
@@ -1633,69 +1637,69 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>285</v>
+        <v>179</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>£796-£1262</t>
+          <t>£967-£1996</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1704,12 +1708,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>£772-£977</t>
+          <t>£961-£1546</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1719,46 +1723,42 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>301</v>
+        <v>441</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>£916-£979</t>
+          <t>£331-£614</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1773,11 +1773,15 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1785,35 +1789,35 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>317</v>
+        <v>438</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>£619-£928</t>
+          <t>£831-£1862</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1837,50 +1841,50 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>£392-£1895</t>
+          <t>£596-£702</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -1891,15 +1895,15 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1908,12 +1912,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>£907-£1808</t>
+          <t>£924-£1771</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1924,36 +1928,36 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1962,24 +1966,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>£700-£1713</t>
+          <t>£662-£1471</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
@@ -1989,21 +1989,21 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2012,48 +2012,48 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>£682-£924</t>
+          <t>£397-£1988</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2062,25 +2062,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>£552-£1046</t>
+          <t>£960-£1169</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2091,15 +2095,15 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2108,7 +2112,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>£780-£1075</t>
+          <t>£995-£1893</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2118,18 +2122,18 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2139,21 +2143,21 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>379</v>
+        <v>137</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>Jane Williams</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2162,33 +2166,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>£546-£1668</t>
+          <t>£981-£1295</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2199,29 +2199,29 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>384</v>
+        <v>494</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>£881-£1985</t>
+          <t>£650-£1600</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2253,15 +2253,15 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>404</v>
+        <v>258</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2270,80 +2270,76 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>£473-£686</t>
+          <t>£648-£792</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>£335-£972</t>
+          <t>£397-£805</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -2351,519 +2347,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2024-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>414</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Alice Johnson</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>22</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>£631-£782</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>430</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Alice Smith</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>18</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>£394-£1948</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>435</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Alice Smith</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>25</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>£671-£818</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2024-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>458</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Jane Johnson</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>20</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>£490-£1146</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2024-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>479</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>22</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>£382-£533</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
           <t>2024-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>481</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Bob Smith</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>26</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>£936-£1935</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>484</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Alice Smith</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>24</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>£832-£1039</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>486</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Bob Doe</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>22</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>£912-£1221</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2024-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>490</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>23</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>£733-£1615</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2024-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>500</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>26</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>£345-£1268</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>2024-09</t>
         </is>
       </c>
     </row>

--- a/available_profiles.xlsx
+++ b/available_profiles.xlsx
@@ -497,29 +497,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>£491-£913</t>
+          <t>£680-£1115</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -530,10 +530,14 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -541,35 +545,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>£722-£1914</t>
+          <t>£491-£913</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -580,14 +584,10 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -595,13 +595,13 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -609,37 +609,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>£680-£1115</t>
+          <t>£301-£1565</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -649,30 +645,30 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>£693-£1053</t>
+          <t>£722-£1914</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -688,12 +684,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -703,49 +699,49 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>£783-£1653</t>
+          <t>£393-£558</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -753,35 +749,35 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>337</v>
+        <v>430</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>£301-£1565</t>
+          <t>£932-£1288</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -803,49 +799,49 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alice Doe</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>£393-£558</t>
+          <t>£783-£1653</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -853,35 +849,35 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>430</v>
+        <v>327</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>£932-£1288</t>
+          <t>£919-£1102</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -891,33 +887,29 @@
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -926,12 +918,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>£409-£411</t>
+          <t>£693-£1053</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -945,7 +937,11 @@
           <t>Computer Science</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -953,21 +949,21 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -976,30 +972,34 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>£919-£1102</t>
+          <t>£409-£411</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
@@ -1059,11 +1059,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>£700-£1308</t>
+          <t>£432-£987</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1091,15 +1091,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1107,56 +1103,52 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>£974-£1569</t>
+          <t>£562-£1835</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1221,15 +1213,15 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1238,61 +1230,57 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>£657-£1098</t>
+          <t>£332-£396</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>£732-£1515</t>
+          <t>£700-£1308</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1307,7 +1295,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1318,26 +1306,26 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1346,62 +1334,66 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>£332-£396</t>
+          <t>£657-£1098</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>£562-£1835</t>
+          <t>£732-£1515</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1415,29 +1407,33 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1446,25 +1442,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>£432-£987</t>
+          <t>£480-£911</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1479,29 +1475,29 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>364</v>
+        <v>476</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alice Doe</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>£480-£911</t>
+          <t>£974-£1569</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1515,115 +1511,111 @@
           <t>Business</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>£916-£1859</t>
+          <t>£496-£1910</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>£496-£1910</t>
+          <t>£662-£1471</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1631,13 +1623,13 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1654,7 +1646,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>£967-£1996</t>
+          <t>£397-£1988</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1664,28 +1656,24 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
@@ -1741,15 +1729,15 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>441</v>
+        <v>179</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1758,38 +1746,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>£331-£614</t>
+          <t>£967-£1996</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -1841,45 +1829,45 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>£596-£702</t>
+          <t>£924-£1771</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1889,13 +1877,13 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>285</v>
+        <v>441</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1912,25 +1900,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>£924-£1771</t>
+          <t>£331-£614</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1938,26 +1926,26 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1966,25 +1954,33 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>£662-£1471</t>
+          <t>£916-£1859</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -1995,29 +1991,29 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>£397-£1988</t>
+          <t>£596-£702</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2027,33 +2023,37 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Jane Williams</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>£960-£1169</t>
+          <t>£981-£1295</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2078,7 +2078,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -2089,21 +2089,21 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2112,12 +2112,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>£995-£1893</t>
+          <t>£397-£805</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2127,37 +2127,33 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jane Williams</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2166,26 +2162,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>£981-£1295</t>
+          <t>£995-£1893</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>Night</t>
@@ -2303,11 +2303,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2320,29 +2320,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>£397-£805</t>
+          <t>£960-£1169</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">

--- a/available_profiles.xlsx
+++ b/available_profiles.xlsx
@@ -497,11 +497,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -509,17 +509,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>£680-£1115</t>
+          <t>£409-£411</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -530,14 +530,10 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -545,21 +541,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>162</v>
+        <v>327</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -568,40 +564,36 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>£491-£913</t>
+          <t>£919-£1102</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -609,33 +601,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>£301-£1565</t>
+          <t>£680-£1115</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -645,51 +641,47 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>£722-£1914</t>
+          <t>£301-£1565</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -699,7 +691,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -755,38 +747,42 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>430</v>
+        <v>249</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>£932-£1288</t>
+          <t>£693-£1053</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -799,21 +795,21 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -822,7 +818,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>£783-£1653</t>
+          <t>£491-£913</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,16 +828,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -849,35 +845,35 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>£919-£1102</t>
+          <t>£932-£1288</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -887,21 +883,25 @@
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -918,25 +918,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>£693-£1053</t>
+          <t>£783-£1653</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -949,17 +945,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -967,17 +963,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>£409-£411</t>
+          <t>£722-£1914</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -988,10 +984,14 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -999,17 +999,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>424</v>
+        <v>280</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1017,35 +1017,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>£747-£1274</t>
+          <t>£562-£1835</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1053,7 +1049,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1105,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1126,62 +1122,62 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>£562-£1835</t>
+          <t>£332-£396</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>481</v>
+        <v>56</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>£506-£762</t>
+          <t>£700-£1308</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1191,29 +1187,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>279</v>
+        <v>481</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1221,33 +1217,37 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>£332-£396</t>
+          <t>£506-£762</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1257,48 +1257,48 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>56</v>
+        <v>476</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>£700-£1308</t>
+          <t>£974-£1569</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>No</t>
@@ -1306,26 +1306,26 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>£657-£1098</t>
+          <t>£480-£911</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1344,20 +1344,16 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1365,21 +1361,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>63</v>
+        <v>424</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1388,7 +1384,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>£732-£1515</t>
+          <t>£747-£1274</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1398,15 +1394,15 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>No</t>
@@ -1414,57 +1410,61 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alice Doe</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>£480-£911</t>
+          <t>£732-£1515</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1475,50 +1475,50 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>476</v>
+        <v>152</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>£974-£1569</t>
+          <t>£657-£1098</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1529,11 +1529,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>£496-£1910</t>
+          <t>£967-£1996</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1577,45 +1577,53 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>£662-£1471</t>
+          <t>£924-£1771</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1623,21 +1631,21 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1646,7 +1654,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>£397-£1988</t>
+          <t>£961-£1546</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1661,7 +1669,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1673,13 +1681,13 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1687,21 +1695,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>£961-£1546</t>
+          <t>£596-£702</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1711,33 +1719,37 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>179</v>
+        <v>441</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1746,44 +1758,44 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>£967-£1996</t>
+          <t>£331-£614</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>438</v>
+        <v>270</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1791,16 +1803,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>£831-£1862</t>
+          <t>£496-£1910</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1810,156 +1822,148 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>285</v>
+        <v>438</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>£924-£1771</t>
+          <t>£831-£1862</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>441</v>
+        <v>309</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>£331-£614</t>
+          <t>£662-£1471</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>120</v>
+        <v>494</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>£916-£1859</t>
+          <t>£650-£1600</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1975,31 +1979,31 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>318</v>
+        <v>120</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2008,12 +2012,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>£596-£702</t>
+          <t>£916-£1859</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2023,37 +2027,37 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jane Williams</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2062,26 +2066,30 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>£981-£1295</t>
+          <t>£995-£1893</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>Night</t>
@@ -2095,15 +2103,15 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2112,12 +2120,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>£397-£805</t>
+          <t>£397-£1988</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2145,15 +2153,15 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>349</v>
+        <v>258</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2162,12 +2170,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>£995-£1893</t>
+          <t>£648-£792</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2177,15 +2185,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>Night</t>
@@ -2199,15 +2203,15 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>494</v>
+        <v>13</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2216,12 +2220,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>£650-£1600</t>
+          <t>£397-£805</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2231,18 +2235,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2253,7 +2253,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2270,25 +2270,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>£648-£792</t>
+          <t>£960-£1169</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -2297,21 +2297,21 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Jane Williams</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>£960-£1169</t>
+          <t>£981-£1295</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2336,7 +2336,7 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>

--- a/available_profiles.xlsx
+++ b/available_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,43 +497,47 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>£409-£411</t>
+          <t>£634-£1646</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -547,24 +551,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>£919-£1102</t>
+          <t>£464-£1910</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -574,30 +578,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -610,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>£680-£1115</t>
+          <t>£748-£949</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -620,70 +628,66 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>£301-£1565</t>
+          <t>£694-£851</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -691,21 +695,21 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alice Doe</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -714,26 +718,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>£393-£558</t>
+          <t>£751-£1401</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -747,15 +751,15 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -764,25 +768,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>£693-£1053</t>
+          <t>£615-£1095</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -801,15 +805,15 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -818,7 +822,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>£491-£913</t>
+          <t>£963-£1604</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -828,19 +832,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -851,15 +855,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -868,26 +872,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>£932-£1288</t>
+          <t>£689-£1859</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -901,15 +905,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -918,26 +922,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>£783-£1653</t>
+          <t>£549-£673</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -945,17 +949,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -963,33 +967,33 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>£722-£1914</t>
+          <t>£737-£1603</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -999,21 +1003,21 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1022,25 +1026,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>£562-£1835</t>
+          <t>£894-£1776</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1055,46 +1059,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>388</v>
+        <v>147</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>£432-£987</t>
+          <t>£908-£1711</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1105,24 +1109,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>£332-£396</t>
+          <t>£735-£746</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1144,26 +1148,26 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1172,7 +1176,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>£700-£1308</t>
+          <t>£475-£1552</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1182,15 +1186,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>No</t>
@@ -1203,56 +1207,56 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>481</v>
+        <v>209</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>£506-£762</t>
+          <t>£390-£1998</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1263,15 +1267,15 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>476</v>
+        <v>224</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1280,7 +1284,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>£974-£1569</t>
+          <t>£998-£1830</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1299,11 +1303,7 @@
           <t>Business</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1317,15 +1317,15 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alice Doe</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>£480-£911</t>
+          <t>£611-£681</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1350,10 +1350,14 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1361,35 +1365,35 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Jane Johnson</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>£747-£1274</t>
+          <t>£639-£681</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1403,33 +1407,29 @@
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1438,25 +1438,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>£732-£1515</t>
+          <t>£509-£1931</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>No</t>
@@ -1469,21 +1469,21 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1492,24 +1492,20 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>£657-£1098</t>
+          <t>£921-£1859</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
@@ -1518,26 +1514,26 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1546,33 +1542,33 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>£967-£1996</t>
+          <t>£682-£708</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1583,15 +1579,15 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1600,25 +1596,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>£924-£1771</t>
+          <t>£781-£1512</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1626,26 +1622,26 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1654,12 +1650,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>£961-£1546</t>
+          <t>£990-£1711</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1669,29 +1665,33 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>£596-£702</t>
+          <t>£499-£760</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1730,26 +1730,26 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1758,24 +1758,20 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>£331-£614</t>
+          <t>£771-£1275</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
@@ -1789,48 +1785,48 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Jane Johnson</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>£496-£1910</t>
+          <t>£675-£1285</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
           <t>No</t>
@@ -1843,21 +1839,21 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1866,7 +1862,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>£831-£1862</t>
+          <t>£642-£1110</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1876,12 +1872,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1895,15 +1899,15 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>309</v>
+        <v>469</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>John Johnson</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1912,12 +1916,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>£662-£1471</t>
+          <t>£945-£1908</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1927,7 +1931,11 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1941,24 +1949,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>£650-£1600</t>
+          <t>£490-£1755</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1968,23 +1976,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -1995,11 +1999,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>120</v>
+        <v>484</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2007,33 +2011,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>£916-£1859</t>
+          <t>£382-£382</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2043,311 +2043,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>349</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Alice Williams</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>18</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>£995-£1893</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>268</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Bob Doe</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>26</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>£397-£1988</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2024-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>258</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>25</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>£648-£792</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>13</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Alice Johnson</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>27</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>£397-£805</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2024-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>36</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>27</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>£960-£1169</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2024-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>137</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Jane Williams</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>26</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>£981-£1295</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>

--- a/available_profiles.xlsx
+++ b/available_profiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,15 +497,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -514,12 +514,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>£634-£1646</t>
+          <t>£397-£805</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -529,15 +529,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -545,21 +541,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -568,29 +564,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>£464-£1910</t>
+          <t>£960-£1169</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -601,11 +597,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -618,7 +614,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>£748-£949</t>
+          <t>£700-£1308</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -633,25 +629,29 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tech</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -659,21 +659,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>£694-£851</t>
+          <t>£732-£1515</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -683,14 +683,18 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Tech</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -701,37 +705,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>£751-£1401</t>
+          <t>£916-£1859</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
@@ -745,56 +753,52 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>Jane Williams</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>£615-£1095</t>
+          <t>£981-£1295</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -805,24 +809,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>£963-£1604</t>
+          <t>£657-£1098</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,47 +836,51 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Bob Smith</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>£689-£1859</t>
+          <t>£491-£913</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -882,15 +890,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -899,21 +907,21 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -922,26 +930,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>£549-£673</t>
+          <t>£783-£1653</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -949,75 +957,75 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>£737-£1603</t>
+          <t>£967-£1996</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1026,12 +1034,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>£894-£1776</t>
+          <t>£393-£558</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1042,7 +1050,7 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1053,30 +1061,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>John Williams</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>£908-£1711</t>
+          <t>£722-£1914</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1086,11 +1094,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>No</t>
@@ -1098,26 +1110,26 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1126,24 +1138,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>£735-£746</t>
+          <t>£693-£1053</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1159,15 +1175,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bob Smith</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1176,66 +1192,62 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>£475-£1552</t>
+          <t>£648-£792</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>£390-£1998</t>
+          <t>£409-£411</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1246,14 +1258,10 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1261,17 +1269,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>John Williams</t>
+          <t>Bob Doe</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1279,12 +1287,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>£998-£1830</t>
+          <t>£397-£1988</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1294,38 +1302,38 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1334,12 +1342,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>£611-£681</t>
+          <t>£496-£1910</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1355,12 +1363,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1375,11 +1383,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1388,26 +1396,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>£639-£681</t>
+          <t>£332-£396</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Cruising</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1421,50 +1429,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>£509-£1931</t>
+          <t>£562-£1835</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Business</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tech</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1475,15 +1479,15 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Alice Smith</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1492,21 +1496,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>£921-£1859</t>
+          <t>£924-£1771</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -1519,56 +1527,48 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>£682-£708</t>
+          <t>£662-£1471</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1579,11 +1579,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>393</v>
+        <v>318</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>£781-£1512</t>
+          <t>£596-£702</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1611,69 +1611,61 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Morning</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>£990-£1711</t>
+          <t>£919-£1102</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>Night</t>
@@ -1681,51 +1673,47 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Alice Williams</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>£499-£760</t>
+          <t>£301-£1565</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1735,21 +1723,21 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1758,24 +1746,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>£771-£1275</t>
+          <t>£680-£1115</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cruising</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1791,24 +1783,24 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jane Johnson</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>£675-£1285</t>
+          <t>£995-£1893</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1823,7 +1815,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1839,17 +1831,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>468</v>
+        <v>364</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bob Doe</t>
+          <t>Alice Doe</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1857,35 +1849,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>£642-£1110</t>
+          <t>£480-£911</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Tech</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>Morning</t>
@@ -1893,52 +1881,52 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>469</v>
+        <v>387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>John Johnson</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>£945-£1908</t>
+          <t>£961-£1546</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Morning</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -1949,42 +1937,42 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>477</v>
+        <v>388</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>£490-£1755</t>
+          <t>£432-£987</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Student</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1993,57 +1981,373 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>£747-£1274</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>430</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>24</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>£932-£1288</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>438</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>18</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>£831-£1862</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Cruising</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>441</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Alice Smith</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
+        <v>24</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>£331-£614</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>476</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bob Williams</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>21</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>£974-£1569</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>481</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bob Johnson</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>23</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>£506-£762</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>494</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Bob Doe</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>19</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>£382-£382</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Cruising</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>£650-£1600</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2024-09</t>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
